--- a/outputs/room_timetables/C003.xlsx
+++ b/outputs/room_timetables/C003.xlsx
@@ -673,12 +673,11 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
+      <c r="AG2" s="3" t="inlineStr">
+        <is>
+          <t>HS161 | English Language and Communication | Dr. Rajesh N S | C003</t>
+        </is>
+      </c>
       <c r="AM2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -781,42 +780,12 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>CS161 | Problem Solving through Programming | Dr. Sunil C K | C003</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -883,13 +852,14 @@
       <c r="AM6" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I5:N5"/>
+  <mergeCells count="7">
+    <mergeCell ref="AG2:AL2"/>
     <mergeCell ref="N3:U3"/>
     <mergeCell ref="N6:U6"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="R4:W4"/>
     <mergeCell ref="N2:U2"/>
+    <mergeCell ref="N5:U5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
